--- a/Covid19-Tunisia-Confirmed.xlsx
+++ b/Covid19-Tunisia-Confirmed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>Country Name</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>Kebili</t>
+  </si>
+  <si>
+    <t>17-04-2020</t>
   </si>
 </sst>
 </file>
@@ -503,15 +506,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX25"/>
+  <dimension ref="A1:AY25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AW13" sqref="AW13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:50" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,8 +665,11 @@
       <c r="AX1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AY1" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -812,8 +818,11 @@
       <c r="AX2" s="1">
         <v>193</v>
       </c>
+      <c r="AY2" s="1">
+        <v>193</v>
+      </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -962,8 +971,11 @@
       <c r="AX3" s="1">
         <v>89</v>
       </c>
+      <c r="AY3" s="1">
+        <v>89</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1112,8 +1124,11 @@
       <c r="AX4" s="1">
         <v>87</v>
       </c>
+      <c r="AY4" s="1">
+        <v>87</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1262,8 +1277,11 @@
       <c r="AX5" s="1">
         <v>37</v>
       </c>
+      <c r="AY5" s="1">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1412,8 +1430,11 @@
       <c r="AX6" s="1">
         <v>12</v>
       </c>
+      <c r="AY6" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1562,8 +1583,11 @@
       <c r="AX7" s="1">
         <v>3</v>
       </c>
+      <c r="AY7" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1712,8 +1736,11 @@
       <c r="AX8" s="1">
         <v>18</v>
       </c>
+      <c r="AY8" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -1862,8 +1889,11 @@
       <c r="AX9" s="1">
         <v>3</v>
       </c>
+      <c r="AY9" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2012,8 +2042,11 @@
       <c r="AX10" s="1">
         <v>1</v>
       </c>
+      <c r="AY10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -2162,8 +2195,11 @@
       <c r="AX11" s="1">
         <v>5</v>
       </c>
+      <c r="AY11" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2312,8 +2348,11 @@
       <c r="AX12" s="1">
         <v>1</v>
       </c>
+      <c r="AY12" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -2462,8 +2501,11 @@
       <c r="AX13" s="1">
         <v>71</v>
       </c>
+      <c r="AY13" s="1">
+        <v>71</v>
+      </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -2612,8 +2654,11 @@
       <c r="AX14" s="1">
         <v>36</v>
       </c>
+      <c r="AY14" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2807,11 @@
       <c r="AX15" s="1">
         <v>13</v>
       </c>
+      <c r="AY15" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -2912,8 +2960,11 @@
       <c r="AX16" s="1">
         <v>31</v>
       </c>
+      <c r="AY16" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -3062,8 +3113,11 @@
       <c r="AX17" s="1">
         <v>6</v>
       </c>
+      <c r="AY17" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -3212,8 +3266,11 @@
       <c r="AX18" s="1">
         <v>5</v>
       </c>
+      <c r="AY18" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -3362,8 +3419,11 @@
       <c r="AX19" s="1">
         <v>5</v>
       </c>
+      <c r="AY19" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -3512,8 +3572,11 @@
       <c r="AX20" s="1">
         <v>20</v>
       </c>
+      <c r="AY20" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -3662,8 +3725,11 @@
       <c r="AX21" s="1">
         <v>84</v>
       </c>
+      <c r="AY21" s="1">
+        <v>84</v>
+      </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -3812,8 +3878,11 @@
       <c r="AX22" s="1">
         <v>32</v>
       </c>
+      <c r="AY22" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -3962,8 +4031,11 @@
       <c r="AX23" s="1">
         <v>32</v>
       </c>
+      <c r="AY23" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -4112,8 +4184,11 @@
       <c r="AX24" s="1">
         <v>4</v>
       </c>
+      <c r="AY24" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -4260,6 +4335,9 @@
         <v>59</v>
       </c>
       <c r="AX25" s="1">
+        <v>76</v>
+      </c>
+      <c r="AY25" s="1">
         <v>76</v>
       </c>
     </row>

--- a/Covid19-Tunisia-Confirmed.xlsx
+++ b/Covid19-Tunisia-Confirmed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>Country Name</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>17-04-2020</t>
+  </si>
+  <si>
+    <t>18-04-2020</t>
   </si>
 </sst>
 </file>
@@ -506,15 +509,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY25"/>
+  <dimension ref="A1:AZ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AW13" sqref="AW13"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AX16" sqref="AX16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:51" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,8 +671,11 @@
       <c r="AY1" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AZ1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -821,8 +827,11 @@
       <c r="AY2" s="1">
         <v>193</v>
       </c>
+      <c r="AZ2" s="1">
+        <v>193</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -974,8 +983,11 @@
       <c r="AY3" s="1">
         <v>89</v>
       </c>
+      <c r="AZ3" s="1">
+        <v>89</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1127,8 +1139,11 @@
       <c r="AY4" s="1">
         <v>87</v>
       </c>
+      <c r="AZ4" s="1">
+        <v>87</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1280,8 +1295,11 @@
       <c r="AY5" s="1">
         <v>37</v>
       </c>
+      <c r="AZ5" s="1">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1433,8 +1451,11 @@
       <c r="AY6" s="1">
         <v>12</v>
       </c>
+      <c r="AZ6" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1586,8 +1607,11 @@
       <c r="AY7" s="1">
         <v>3</v>
       </c>
+      <c r="AZ7" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1739,8 +1763,11 @@
       <c r="AY8" s="1">
         <v>18</v>
       </c>
+      <c r="AZ8" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -1892,8 +1919,11 @@
       <c r="AY9" s="1">
         <v>3</v>
       </c>
+      <c r="AZ9" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2045,8 +2075,11 @@
       <c r="AY10" s="1">
         <v>1</v>
       </c>
+      <c r="AZ10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -2198,8 +2231,11 @@
       <c r="AY11" s="1">
         <v>5</v>
       </c>
+      <c r="AZ11" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2351,8 +2387,11 @@
       <c r="AY12" s="1">
         <v>1</v>
       </c>
+      <c r="AZ12" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -2504,8 +2543,11 @@
       <c r="AY13" s="1">
         <v>71</v>
       </c>
+      <c r="AZ13" s="1">
+        <v>73</v>
+      </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -2657,8 +2699,11 @@
       <c r="AY14" s="1">
         <v>36</v>
       </c>
+      <c r="AZ14" s="1">
+        <v>38</v>
+      </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -2810,8 +2855,11 @@
       <c r="AY15" s="1">
         <v>13</v>
       </c>
+      <c r="AZ15" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -2963,8 +3011,11 @@
       <c r="AY16" s="1">
         <v>32</v>
       </c>
+      <c r="AZ16" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -3116,8 +3167,11 @@
       <c r="AY17" s="1">
         <v>6</v>
       </c>
+      <c r="AZ17" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -3269,8 +3323,11 @@
       <c r="AY18" s="1">
         <v>5</v>
       </c>
+      <c r="AZ18" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -3422,8 +3479,11 @@
       <c r="AY19" s="1">
         <v>5</v>
       </c>
+      <c r="AZ19" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -3575,8 +3635,11 @@
       <c r="AY20" s="1">
         <v>20</v>
       </c>
+      <c r="AZ20" s="1">
+        <v>21</v>
+      </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -3728,8 +3791,11 @@
       <c r="AY21" s="1">
         <v>84</v>
       </c>
+      <c r="AZ21" s="1">
+        <v>84</v>
+      </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -3881,8 +3947,11 @@
       <c r="AY22" s="1">
         <v>32</v>
       </c>
+      <c r="AZ22" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -4034,8 +4103,11 @@
       <c r="AY23" s="1">
         <v>32</v>
       </c>
+      <c r="AZ23" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -4187,8 +4259,11 @@
       <c r="AY24" s="1">
         <v>5</v>
       </c>
+      <c r="AZ24" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -4339,6 +4414,9 @@
       </c>
       <c r="AY25" s="1">
         <v>76</v>
+      </c>
+      <c r="AZ25" s="1">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Covid19-Tunisia-Confirmed.xlsx
+++ b/Covid19-Tunisia-Confirmed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Country Name</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>18-04-2020</t>
+  </si>
+  <si>
+    <t>19-04-2020</t>
   </si>
 </sst>
 </file>
@@ -509,15 +512,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ25"/>
+  <dimension ref="A1:BA25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AX16" sqref="AX16"/>
+      <selection activeCell="BA2" sqref="BA2:BA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:52" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,8 +677,11 @@
       <c r="AZ1" t="s">
         <v>53</v>
       </c>
+      <c r="BA1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -830,8 +836,11 @@
       <c r="AZ2" s="1">
         <v>193</v>
       </c>
+      <c r="BA2" s="1">
+        <v>193</v>
+      </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -986,8 +995,11 @@
       <c r="AZ3" s="1">
         <v>89</v>
       </c>
+      <c r="BA3" s="1">
+        <v>89</v>
+      </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1142,8 +1154,11 @@
       <c r="AZ4" s="1">
         <v>87</v>
       </c>
+      <c r="BA4" s="1">
+        <v>87</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1298,8 +1313,11 @@
       <c r="AZ5" s="1">
         <v>38</v>
       </c>
+      <c r="BA5" s="1">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1454,8 +1472,11 @@
       <c r="AZ6" s="1">
         <v>12</v>
       </c>
+      <c r="BA6" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1610,8 +1631,11 @@
       <c r="AZ7" s="1">
         <v>3</v>
       </c>
+      <c r="BA7" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1766,8 +1790,11 @@
       <c r="AZ8" s="1">
         <v>18</v>
       </c>
+      <c r="BA8" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -1922,8 +1949,11 @@
       <c r="AZ9" s="1">
         <v>3</v>
       </c>
+      <c r="BA9" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2078,8 +2108,11 @@
       <c r="AZ10" s="1">
         <v>1</v>
       </c>
+      <c r="BA10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -2234,8 +2267,11 @@
       <c r="AZ11" s="1">
         <v>5</v>
       </c>
+      <c r="BA11" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2390,8 +2426,11 @@
       <c r="AZ12" s="1">
         <v>1</v>
       </c>
+      <c r="BA12" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -2546,8 +2585,11 @@
       <c r="AZ13" s="1">
         <v>73</v>
       </c>
+      <c r="BA13" s="1">
+        <v>74</v>
+      </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -2702,8 +2744,11 @@
       <c r="AZ14" s="1">
         <v>38</v>
       </c>
+      <c r="BA14" s="1">
+        <v>37</v>
+      </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -2858,8 +2903,11 @@
       <c r="AZ15" s="1">
         <v>13</v>
       </c>
+      <c r="BA15" s="1">
+        <v>15</v>
+      </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -3014,8 +3062,11 @@
       <c r="AZ16" s="1">
         <v>32</v>
       </c>
+      <c r="BA16" s="1">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -3170,8 +3221,11 @@
       <c r="AZ17" s="1">
         <v>6</v>
       </c>
+      <c r="BA17" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -3326,8 +3380,11 @@
       <c r="AZ18" s="1">
         <v>5</v>
       </c>
+      <c r="BA18" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -3482,8 +3539,11 @@
       <c r="AZ19" s="1">
         <v>5</v>
       </c>
+      <c r="BA19" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -3638,8 +3698,11 @@
       <c r="AZ20" s="1">
         <v>21</v>
       </c>
+      <c r="BA20" s="1">
+        <v>21</v>
+      </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -3794,8 +3857,11 @@
       <c r="AZ21" s="1">
         <v>84</v>
       </c>
+      <c r="BA21" s="1">
+        <v>85</v>
+      </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -3950,8 +4016,11 @@
       <c r="AZ22" s="1">
         <v>32</v>
       </c>
+      <c r="BA22" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -4106,8 +4175,11 @@
       <c r="AZ23" s="1">
         <v>32</v>
       </c>
+      <c r="BA23" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -4262,8 +4334,11 @@
       <c r="AZ24" s="1">
         <v>5</v>
       </c>
+      <c r="BA24" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -4416,6 +4491,9 @@
         <v>76</v>
       </c>
       <c r="AZ25" s="1">
+        <v>83</v>
+      </c>
+      <c r="BA25" s="1">
         <v>83</v>
       </c>
     </row>

--- a/Covid19-Tunisia-Confirmed.xlsx
+++ b/Covid19-Tunisia-Confirmed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>Country Name</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>19-04-2020</t>
+  </si>
+  <si>
+    <t>20-04-2020</t>
   </si>
 </sst>
 </file>
@@ -512,15 +515,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BB25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BA2" sqref="BA2:BA25"/>
+      <selection activeCell="BB6" sqref="BB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:53" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,8 +683,11 @@
       <c r="BA1" t="s">
         <v>54</v>
       </c>
+      <c r="BB1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -839,8 +845,11 @@
       <c r="BA2" s="1">
         <v>193</v>
       </c>
+      <c r="BB2" s="1">
+        <v>193</v>
+      </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -998,8 +1007,11 @@
       <c r="BA3" s="1">
         <v>89</v>
       </c>
+      <c r="BB3" s="1">
+        <v>89</v>
+      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1157,8 +1169,11 @@
       <c r="BA4" s="1">
         <v>87</v>
       </c>
+      <c r="BB4" s="1">
+        <v>87</v>
+      </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1316,8 +1331,11 @@
       <c r="BA5" s="1">
         <v>38</v>
       </c>
+      <c r="BB5" s="1">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1475,8 +1493,11 @@
       <c r="BA6" s="1">
         <v>12</v>
       </c>
+      <c r="BB6" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1634,8 +1655,11 @@
       <c r="BA7" s="1">
         <v>3</v>
       </c>
+      <c r="BB7" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,8 +1817,11 @@
       <c r="BA8" s="1">
         <v>18</v>
       </c>
+      <c r="BB8" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -1952,8 +1979,11 @@
       <c r="BA9" s="1">
         <v>3</v>
       </c>
+      <c r="BB9" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2111,8 +2141,11 @@
       <c r="BA10" s="1">
         <v>1</v>
       </c>
+      <c r="BB10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -2270,8 +2303,11 @@
       <c r="BA11" s="1">
         <v>5</v>
       </c>
+      <c r="BB11" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2429,8 +2465,11 @@
       <c r="BA12" s="1">
         <v>1</v>
       </c>
+      <c r="BB12" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -2588,8 +2627,11 @@
       <c r="BA13" s="1">
         <v>74</v>
       </c>
+      <c r="BB13" s="1">
+        <v>74</v>
+      </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -2747,8 +2789,11 @@
       <c r="BA14" s="1">
         <v>37</v>
       </c>
+      <c r="BB14" s="1">
+        <v>37</v>
+      </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -2906,8 +2951,11 @@
       <c r="BA15" s="1">
         <v>15</v>
       </c>
+      <c r="BB15" s="1">
+        <v>15</v>
+      </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -3065,8 +3113,11 @@
       <c r="BA16" s="1">
         <v>34</v>
       </c>
+      <c r="BB16" s="1">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3275,11 @@
       <c r="BA17" s="1">
         <v>6</v>
       </c>
+      <c r="BB17" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -3383,8 +3437,11 @@
       <c r="BA18" s="1">
         <v>5</v>
       </c>
+      <c r="BB18" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -3542,8 +3599,11 @@
       <c r="BA19" s="1">
         <v>5</v>
       </c>
+      <c r="BB19" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -3701,8 +3761,11 @@
       <c r="BA20" s="1">
         <v>21</v>
       </c>
+      <c r="BB20" s="1">
+        <v>21</v>
+      </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -3860,8 +3923,11 @@
       <c r="BA21" s="1">
         <v>85</v>
       </c>
+      <c r="BB21" s="1">
+        <v>85</v>
+      </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -4019,8 +4085,11 @@
       <c r="BA22" s="1">
         <v>32</v>
       </c>
+      <c r="BB22" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -4178,8 +4247,11 @@
       <c r="BA23" s="1">
         <v>32</v>
       </c>
+      <c r="BB23" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -4337,8 +4409,11 @@
       <c r="BA24" s="1">
         <v>5</v>
       </c>
+      <c r="BB24" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -4494,6 +4569,9 @@
         <v>83</v>
       </c>
       <c r="BA25" s="1">
+        <v>83</v>
+      </c>
+      <c r="BB25" s="1">
         <v>83</v>
       </c>
     </row>

--- a/Covid19-Tunisia-Confirmed.xlsx
+++ b/Covid19-Tunisia-Confirmed.xlsx
@@ -518,7 +518,7 @@
   <dimension ref="A1:BB25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BB6" sqref="BB6"/>
+      <selection activeCell="BD14" sqref="BD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,7 +846,7 @@
         <v>193</v>
       </c>
       <c r="BB2" s="1">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.3">
@@ -1008,7 +1008,7 @@
         <v>89</v>
       </c>
       <c r="BB3" s="1">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.3">
@@ -1170,7 +1170,7 @@
         <v>87</v>
       </c>
       <c r="BB4" s="1">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.3">
@@ -1818,7 +1818,7 @@
         <v>18</v>
       </c>
       <c r="BB8" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.3">
@@ -3114,7 +3114,7 @@
         <v>34</v>
       </c>
       <c r="BB16" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.3">
@@ -3762,7 +3762,7 @@
         <v>21</v>
       </c>
       <c r="BB20" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.3">
@@ -4248,7 +4248,7 @@
         <v>32</v>
       </c>
       <c r="BB23" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:54" x14ac:dyDescent="0.3">
@@ -4572,7 +4572,7 @@
         <v>83</v>
       </c>
       <c r="BB25" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Covid19-Tunisia-Confirmed.xlsx
+++ b/Covid19-Tunisia-Confirmed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>Country Name</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>20-04-2020</t>
+  </si>
+  <si>
+    <t>21-04-2020</t>
   </si>
 </sst>
 </file>
@@ -515,15 +518,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB25"/>
+  <dimension ref="A1:BC25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BD14" sqref="BD14"/>
+      <selection activeCell="BE16" sqref="BE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:54" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,8 +689,11 @@
       <c r="BB1" t="s">
         <v>55</v>
       </c>
+      <c r="BC1" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -848,8 +854,11 @@
       <c r="BB2" s="1">
         <v>195</v>
       </c>
+      <c r="BC2" s="1">
+        <v>198</v>
+      </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1010,8 +1019,11 @@
       <c r="BB3" s="1">
         <v>93</v>
       </c>
+      <c r="BC3" s="1">
+        <v>93</v>
+      </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1172,8 +1184,11 @@
       <c r="BB4" s="1">
         <v>91</v>
       </c>
+      <c r="BC4" s="1">
+        <v>91</v>
+      </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1334,8 +1349,11 @@
       <c r="BB5" s="1">
         <v>38</v>
       </c>
+      <c r="BC5" s="1">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1496,8 +1514,11 @@
       <c r="BB6" s="1">
         <v>12</v>
       </c>
+      <c r="BC6" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1658,8 +1679,11 @@
       <c r="BB7" s="1">
         <v>3</v>
       </c>
+      <c r="BC7" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1820,8 +1844,11 @@
       <c r="BB8" s="1">
         <v>19</v>
       </c>
+      <c r="BC8" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -1982,8 +2009,11 @@
       <c r="BB9" s="1">
         <v>3</v>
       </c>
+      <c r="BC9" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2144,8 +2174,11 @@
       <c r="BB10" s="1">
         <v>1</v>
       </c>
+      <c r="BC10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -2306,8 +2339,11 @@
       <c r="BB11" s="1">
         <v>5</v>
       </c>
+      <c r="BC11" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2468,8 +2504,11 @@
       <c r="BB12" s="1">
         <v>1</v>
       </c>
+      <c r="BC12" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -2630,8 +2669,11 @@
       <c r="BB13" s="1">
         <v>74</v>
       </c>
+      <c r="BC13" s="1">
+        <v>77</v>
+      </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -2792,8 +2834,11 @@
       <c r="BB14" s="1">
         <v>37</v>
       </c>
+      <c r="BC14" s="1">
+        <v>37</v>
+      </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -2954,8 +2999,11 @@
       <c r="BB15" s="1">
         <v>15</v>
       </c>
+      <c r="BC15" s="1">
+        <v>16</v>
+      </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -3116,8 +3164,11 @@
       <c r="BB16" s="1">
         <v>36</v>
       </c>
+      <c r="BC16" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -3278,8 +3329,11 @@
       <c r="BB17" s="1">
         <v>6</v>
       </c>
+      <c r="BC17" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -3440,8 +3494,11 @@
       <c r="BB18" s="1">
         <v>5</v>
       </c>
+      <c r="BC18" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -3602,8 +3659,11 @@
       <c r="BB19" s="1">
         <v>5</v>
       </c>
+      <c r="BC19" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -3764,8 +3824,11 @@
       <c r="BB20" s="1">
         <v>22</v>
       </c>
+      <c r="BC20" s="1">
+        <v>22</v>
+      </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -3926,8 +3989,11 @@
       <c r="BB21" s="1">
         <v>85</v>
       </c>
+      <c r="BC21" s="1">
+        <v>85</v>
+      </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -4088,8 +4154,11 @@
       <c r="BB22" s="1">
         <v>32</v>
       </c>
+      <c r="BC22" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -4250,8 +4319,11 @@
       <c r="BB23" s="1">
         <v>33</v>
       </c>
+      <c r="BC23" s="1">
+        <v>33</v>
+      </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -4412,8 +4484,11 @@
       <c r="BB24" s="1">
         <v>5</v>
       </c>
+      <c r="BC24" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -4572,6 +4647,9 @@
         <v>83</v>
       </c>
       <c r="BB25" s="1">
+        <v>85</v>
+      </c>
+      <c r="BC25" s="1">
         <v>85</v>
       </c>
     </row>

--- a/Covid19-Tunisia-Confirmed.xlsx
+++ b/Covid19-Tunisia-Confirmed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
   <si>
     <t>Country Name</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>21-04-2020</t>
+  </si>
+  <si>
+    <t>22-04-2020</t>
   </si>
 </sst>
 </file>
@@ -518,15 +521,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC25"/>
+  <dimension ref="A1:BD25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BE16" sqref="BE16"/>
+      <selection activeCell="AU9" sqref="AU9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:55" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,8 +695,11 @@
       <c r="BC1" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="BD1" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -857,8 +863,11 @@
       <c r="BC2" s="1">
         <v>198</v>
       </c>
+      <c r="BD2" s="1">
+        <v>199</v>
+      </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1022,8 +1031,11 @@
       <c r="BC3" s="1">
         <v>93</v>
       </c>
+      <c r="BD3" s="1">
+        <v>94</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1187,8 +1199,11 @@
       <c r="BC4" s="1">
         <v>91</v>
       </c>
+      <c r="BD4" s="1">
+        <v>91</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1352,8 +1367,11 @@
       <c r="BC5" s="1">
         <v>39</v>
       </c>
+      <c r="BD5" s="1">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1517,8 +1535,11 @@
       <c r="BC6" s="1">
         <v>12</v>
       </c>
+      <c r="BD6" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1682,8 +1703,11 @@
       <c r="BC7" s="1">
         <v>3</v>
       </c>
+      <c r="BD7" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1847,8 +1871,11 @@
       <c r="BC8" s="1">
         <v>19</v>
       </c>
+      <c r="BD8" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2012,8 +2039,11 @@
       <c r="BC9" s="1">
         <v>3</v>
       </c>
+      <c r="BD9" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2177,8 +2207,11 @@
       <c r="BC10" s="1">
         <v>1</v>
       </c>
+      <c r="BD10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -2342,8 +2375,11 @@
       <c r="BC11" s="1">
         <v>5</v>
       </c>
+      <c r="BD11" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2507,8 +2543,11 @@
       <c r="BC12" s="1">
         <v>1</v>
       </c>
+      <c r="BD12" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -2672,8 +2711,11 @@
       <c r="BC13" s="1">
         <v>77</v>
       </c>
+      <c r="BD13" s="1">
+        <v>78</v>
+      </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -2837,8 +2879,11 @@
       <c r="BC14" s="1">
         <v>37</v>
       </c>
+      <c r="BD14" s="1">
+        <v>37</v>
+      </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -3002,8 +3047,11 @@
       <c r="BC15" s="1">
         <v>16</v>
       </c>
+      <c r="BD15" s="1">
+        <v>15</v>
+      </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -3167,8 +3215,11 @@
       <c r="BC16" s="1">
         <v>36</v>
       </c>
+      <c r="BD16" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -3332,8 +3383,11 @@
       <c r="BC17" s="1">
         <v>6</v>
       </c>
+      <c r="BD17" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -3497,8 +3551,11 @@
       <c r="BC18" s="1">
         <v>5</v>
       </c>
+      <c r="BD18" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -3662,8 +3719,11 @@
       <c r="BC19" s="1">
         <v>5</v>
       </c>
+      <c r="BD19" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -3827,8 +3887,11 @@
       <c r="BC20" s="1">
         <v>22</v>
       </c>
+      <c r="BD20" s="1">
+        <v>22</v>
+      </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -3992,8 +4055,11 @@
       <c r="BC21" s="1">
         <v>85</v>
       </c>
+      <c r="BD21" s="1">
+        <v>85</v>
+      </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -4157,8 +4223,11 @@
       <c r="BC22" s="1">
         <v>32</v>
       </c>
+      <c r="BD22" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -4322,8 +4391,11 @@
       <c r="BC23" s="1">
         <v>33</v>
       </c>
+      <c r="BD23" s="1">
+        <v>38</v>
+      </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -4487,8 +4559,11 @@
       <c r="BC24" s="1">
         <v>5</v>
       </c>
+      <c r="BD24" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -4651,6 +4726,9 @@
       </c>
       <c r="BC25" s="1">
         <v>85</v>
+      </c>
+      <c r="BD25" s="1">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Covid19-Tunisia-Confirmed.xlsx
+++ b/Covid19-Tunisia-Confirmed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t>Country Name</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>22-04-2020</t>
+  </si>
+  <si>
+    <t>23-04-2020</t>
   </si>
 </sst>
 </file>
@@ -521,15 +524,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD25"/>
+  <dimension ref="A1:BE25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AU9" sqref="AU9"/>
+      <selection activeCell="BE1" sqref="BE1:BE25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:56" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,8 +701,11 @@
       <c r="BD1" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="BE1" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -866,8 +872,11 @@
       <c r="BD2" s="1">
         <v>199</v>
       </c>
+      <c r="BE2" s="1">
+        <v>199</v>
+      </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1034,8 +1043,11 @@
       <c r="BD3" s="1">
         <v>94</v>
       </c>
+      <c r="BE3" s="1">
+        <v>94</v>
+      </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1202,8 +1214,11 @@
       <c r="BD4" s="1">
         <v>91</v>
       </c>
+      <c r="BE4" s="1">
+        <v>91</v>
+      </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1370,8 +1385,11 @@
       <c r="BD5" s="1">
         <v>39</v>
       </c>
+      <c r="BE5" s="1">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1538,8 +1556,11 @@
       <c r="BD6" s="1">
         <v>12</v>
       </c>
+      <c r="BE6" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1706,8 +1727,11 @@
       <c r="BD7" s="1">
         <v>3</v>
       </c>
+      <c r="BE7" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1874,8 +1898,11 @@
       <c r="BD8" s="1">
         <v>19</v>
       </c>
+      <c r="BE8" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2042,8 +2069,11 @@
       <c r="BD9" s="1">
         <v>3</v>
       </c>
+      <c r="BE9" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2210,8 +2240,11 @@
       <c r="BD10" s="1">
         <v>1</v>
       </c>
+      <c r="BE10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -2378,8 +2411,11 @@
       <c r="BD11" s="1">
         <v>5</v>
       </c>
+      <c r="BE11" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2546,8 +2582,11 @@
       <c r="BD12" s="1">
         <v>2</v>
       </c>
+      <c r="BE12" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -2714,8 +2753,11 @@
       <c r="BD13" s="1">
         <v>78</v>
       </c>
+      <c r="BE13" s="1">
+        <v>81</v>
+      </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -2882,8 +2924,11 @@
       <c r="BD14" s="1">
         <v>37</v>
       </c>
+      <c r="BE14" s="1">
+        <v>37</v>
+      </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -3050,8 +3095,11 @@
       <c r="BD15" s="1">
         <v>15</v>
       </c>
+      <c r="BE15" s="1">
+        <v>15</v>
+      </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -3218,8 +3266,11 @@
       <c r="BD16" s="1">
         <v>36</v>
       </c>
+      <c r="BE16" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -3386,8 +3437,11 @@
       <c r="BD17" s="1">
         <v>6</v>
       </c>
+      <c r="BE17" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -3554,8 +3608,11 @@
       <c r="BD18" s="1">
         <v>5</v>
       </c>
+      <c r="BE18" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3779,11 @@
       <c r="BD19" s="1">
         <v>5</v>
       </c>
+      <c r="BE19" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -3890,8 +3950,11 @@
       <c r="BD20" s="1">
         <v>22</v>
       </c>
+      <c r="BE20" s="1">
+        <v>22</v>
+      </c>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -4058,8 +4121,11 @@
       <c r="BD21" s="1">
         <v>85</v>
       </c>
+      <c r="BE21" s="1">
+        <v>85</v>
+      </c>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -4226,8 +4292,11 @@
       <c r="BD22" s="1">
         <v>32</v>
       </c>
+      <c r="BE22" s="1">
+        <v>32</v>
+      </c>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -4394,8 +4463,11 @@
       <c r="BD23" s="1">
         <v>38</v>
       </c>
+      <c r="BE23" s="1">
+        <v>38</v>
+      </c>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -4562,8 +4634,11 @@
       <c r="BD24" s="1">
         <v>5</v>
       </c>
+      <c r="BE24" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -4728,6 +4803,9 @@
         <v>85</v>
       </c>
       <c r="BD25" s="1">
+        <v>86</v>
+      </c>
+      <c r="BE25" s="1">
         <v>86</v>
       </c>
     </row>

--- a/Covid19-Tunisia-Confirmed.xlsx
+++ b/Covid19-Tunisia-Confirmed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>Country Name</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>23-04-2020</t>
+  </si>
+  <si>
+    <t>24-04-2020</t>
   </si>
 </sst>
 </file>
@@ -524,15 +527,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE25"/>
+  <dimension ref="A1:BF25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BE1" sqref="BE1:BE25"/>
+      <selection activeCell="BF1" sqref="BF1:BF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:57" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,8 +707,11 @@
       <c r="BE1" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="BF1" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -875,8 +881,11 @@
       <c r="BE2" s="1">
         <v>199</v>
       </c>
+      <c r="BF2" s="1">
+        <v>202</v>
+      </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1046,8 +1055,11 @@
       <c r="BE3" s="1">
         <v>94</v>
       </c>
+      <c r="BF3" s="1">
+        <v>94</v>
+      </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1217,8 +1229,11 @@
       <c r="BE4" s="1">
         <v>91</v>
       </c>
+      <c r="BF4" s="1">
+        <v>92</v>
+      </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1388,8 +1403,11 @@
       <c r="BE5" s="1">
         <v>39</v>
       </c>
+      <c r="BF5" s="1">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1559,8 +1577,11 @@
       <c r="BE6" s="1">
         <v>12</v>
       </c>
+      <c r="BF6" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1730,8 +1751,11 @@
       <c r="BE7" s="1">
         <v>3</v>
       </c>
+      <c r="BF7" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1901,8 +1925,11 @@
       <c r="BE8" s="1">
         <v>19</v>
       </c>
+      <c r="BF8" s="1">
+        <v>19</v>
+      </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2072,8 +2099,11 @@
       <c r="BE9" s="1">
         <v>3</v>
       </c>
+      <c r="BF9" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2243,8 +2273,11 @@
       <c r="BE10" s="1">
         <v>1</v>
       </c>
+      <c r="BF10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -2414,8 +2447,11 @@
       <c r="BE11" s="1">
         <v>5</v>
       </c>
+      <c r="BF11" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2585,8 +2621,11 @@
       <c r="BE12" s="1">
         <v>2</v>
       </c>
+      <c r="BF12" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -2756,8 +2795,11 @@
       <c r="BE13" s="1">
         <v>81</v>
       </c>
+      <c r="BF13" s="1">
+        <v>81</v>
+      </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -2927,8 +2969,11 @@
       <c r="BE14" s="1">
         <v>37</v>
       </c>
+      <c r="BF14" s="1">
+        <v>37</v>
+      </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -3098,8 +3143,11 @@
       <c r="BE15" s="1">
         <v>15</v>
       </c>
+      <c r="BF15" s="1">
+        <v>15</v>
+      </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -3269,8 +3317,11 @@
       <c r="BE16" s="1">
         <v>36</v>
       </c>
+      <c r="BF16" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -3440,8 +3491,11 @@
       <c r="BE17" s="1">
         <v>6</v>
       </c>
+      <c r="BF17" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -3611,8 +3665,11 @@
       <c r="BE18" s="1">
         <v>6</v>
       </c>
+      <c r="BF18" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -3782,8 +3839,11 @@
       <c r="BE19" s="1">
         <v>5</v>
       </c>
+      <c r="BF19" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -3953,8 +4013,11 @@
       <c r="BE20" s="1">
         <v>22</v>
       </c>
+      <c r="BF20" s="1">
+        <v>22</v>
+      </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -4124,8 +4187,11 @@
       <c r="BE21" s="1">
         <v>85</v>
       </c>
+      <c r="BF21" s="1">
+        <v>86</v>
+      </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -4295,8 +4361,11 @@
       <c r="BE22" s="1">
         <v>32</v>
       </c>
+      <c r="BF22" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -4466,8 +4535,11 @@
       <c r="BE23" s="1">
         <v>38</v>
       </c>
+      <c r="BF23" s="1">
+        <v>38</v>
+      </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -4637,8 +4709,11 @@
       <c r="BE24" s="1">
         <v>5</v>
       </c>
+      <c r="BF24" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -4807,6 +4882,9 @@
       </c>
       <c r="BE25" s="1">
         <v>86</v>
+      </c>
+      <c r="BF25" s="1">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Covid19-Tunisia-Confirmed.xlsx
+++ b/Covid19-Tunisia-Confirmed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>Country Name</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>24-04-2020</t>
+  </si>
+  <si>
+    <t>25-04-2020</t>
   </si>
 </sst>
 </file>
@@ -527,15 +530,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF25"/>
+  <dimension ref="A1:BG25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BF1" sqref="BF1:BF25"/>
+      <selection activeCell="BG1" sqref="BG1:BG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:58" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,8 +713,11 @@
       <c r="BF1" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="BG1" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -884,8 +890,11 @@
       <c r="BF2" s="1">
         <v>202</v>
       </c>
+      <c r="BG2" s="1">
+        <v>205</v>
+      </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1058,8 +1067,11 @@
       <c r="BF3" s="1">
         <v>94</v>
       </c>
+      <c r="BG3" s="1">
+        <v>95</v>
+      </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1232,8 +1244,11 @@
       <c r="BF4" s="1">
         <v>92</v>
       </c>
+      <c r="BG4" s="1">
+        <v>92</v>
+      </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1406,8 +1421,11 @@
       <c r="BF5" s="1">
         <v>39</v>
       </c>
+      <c r="BG5" s="1">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1580,8 +1598,11 @@
       <c r="BF6" s="1">
         <v>12</v>
       </c>
+      <c r="BG6" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1754,8 +1775,11 @@
       <c r="BF7" s="1">
         <v>3</v>
       </c>
+      <c r="BG7" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1928,8 +1952,11 @@
       <c r="BF8" s="1">
         <v>19</v>
       </c>
+      <c r="BG8" s="1">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2102,8 +2129,11 @@
       <c r="BF9" s="1">
         <v>3</v>
       </c>
+      <c r="BG9" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2276,8 +2306,11 @@
       <c r="BF10" s="1">
         <v>1</v>
       </c>
+      <c r="BG10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -2450,8 +2483,11 @@
       <c r="BF11" s="1">
         <v>5</v>
       </c>
+      <c r="BG11" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2624,8 +2660,11 @@
       <c r="BF12" s="1">
         <v>2</v>
       </c>
+      <c r="BG12" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -2798,8 +2837,11 @@
       <c r="BF13" s="1">
         <v>81</v>
       </c>
+      <c r="BG13" s="1">
+        <v>82</v>
+      </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -2972,8 +3014,11 @@
       <c r="BF14" s="1">
         <v>37</v>
       </c>
+      <c r="BG14" s="1">
+        <v>37</v>
+      </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -3146,8 +3191,11 @@
       <c r="BF15" s="1">
         <v>15</v>
       </c>
+      <c r="BG15" s="1">
+        <v>15</v>
+      </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -3320,8 +3368,11 @@
       <c r="BF16" s="1">
         <v>36</v>
       </c>
+      <c r="BG16" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -3494,8 +3545,11 @@
       <c r="BF17" s="1">
         <v>6</v>
       </c>
+      <c r="BG17" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -3668,8 +3722,11 @@
       <c r="BF18" s="1">
         <v>7</v>
       </c>
+      <c r="BG18" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -3842,8 +3899,11 @@
       <c r="BF19" s="1">
         <v>5</v>
       </c>
+      <c r="BG19" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -4016,8 +4076,11 @@
       <c r="BF20" s="1">
         <v>22</v>
       </c>
+      <c r="BG20" s="1">
+        <v>22</v>
+      </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -4190,8 +4253,11 @@
       <c r="BF21" s="1">
         <v>86</v>
       </c>
+      <c r="BG21" s="1">
+        <v>87</v>
+      </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -4364,8 +4430,11 @@
       <c r="BF22" s="1">
         <v>35</v>
       </c>
+      <c r="BG22" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -4538,8 +4607,11 @@
       <c r="BF23" s="1">
         <v>38</v>
       </c>
+      <c r="BG23" s="1">
+        <v>38</v>
+      </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -4712,8 +4784,11 @@
       <c r="BF24" s="1">
         <v>5</v>
       </c>
+      <c r="BG24" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -4885,6 +4960,9 @@
       </c>
       <c r="BF25" s="1">
         <v>94</v>
+      </c>
+      <c r="BG25" s="1">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Covid19-Tunisia-Confirmed.xlsx
+++ b/Covid19-Tunisia-Confirmed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>Country Name</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>25-04-2020</t>
+  </si>
+  <si>
+    <t>26-04-2020</t>
   </si>
 </sst>
 </file>
@@ -530,15 +533,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG25"/>
+  <dimension ref="A1:BH25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BG1" sqref="BG1:BG25"/>
+      <selection activeCell="BH1" sqref="BH1:BH25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:59" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,8 +719,11 @@
       <c r="BG1" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="BH1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -893,8 +899,11 @@
       <c r="BG2" s="1">
         <v>205</v>
       </c>
+      <c r="BH2" s="1">
+        <v>209</v>
+      </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1070,8 +1079,11 @@
       <c r="BG3" s="1">
         <v>95</v>
       </c>
+      <c r="BH3" s="1">
+        <v>95</v>
+      </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1247,8 +1259,11 @@
       <c r="BG4" s="1">
         <v>92</v>
       </c>
+      <c r="BH4" s="1">
+        <v>93</v>
+      </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1424,8 +1439,11 @@
       <c r="BG5" s="1">
         <v>39</v>
       </c>
+      <c r="BH5" s="1">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1601,8 +1619,11 @@
       <c r="BG6" s="1">
         <v>12</v>
       </c>
+      <c r="BH6" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1799,11 @@
       <c r="BG7" s="1">
         <v>3</v>
       </c>
+      <c r="BH7" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1955,8 +1979,11 @@
       <c r="BG8" s="1">
         <v>21</v>
       </c>
+      <c r="BH8" s="1">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2132,8 +2159,11 @@
       <c r="BG9" s="1">
         <v>3</v>
       </c>
+      <c r="BH9" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2309,8 +2339,11 @@
       <c r="BG10" s="1">
         <v>1</v>
       </c>
+      <c r="BH10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -2486,8 +2519,11 @@
       <c r="BG11" s="1">
         <v>5</v>
       </c>
+      <c r="BH11" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2663,8 +2699,11 @@
       <c r="BG12" s="1">
         <v>2</v>
       </c>
+      <c r="BH12" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -2840,8 +2879,11 @@
       <c r="BG13" s="1">
         <v>82</v>
       </c>
+      <c r="BH13" s="1">
+        <v>82</v>
+      </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -3017,8 +3059,11 @@
       <c r="BG14" s="1">
         <v>37</v>
       </c>
+      <c r="BH14" s="1">
+        <v>37</v>
+      </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -3194,8 +3239,11 @@
       <c r="BG15" s="1">
         <v>15</v>
       </c>
+      <c r="BH15" s="1">
+        <v>16</v>
+      </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -3371,8 +3419,11 @@
       <c r="BG16" s="1">
         <v>36</v>
       </c>
+      <c r="BH16" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -3548,8 +3599,11 @@
       <c r="BG17" s="1">
         <v>6</v>
       </c>
+      <c r="BH17" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -3725,8 +3779,11 @@
       <c r="BG18" s="1">
         <v>7</v>
       </c>
+      <c r="BH18" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -3902,8 +3959,11 @@
       <c r="BG19" s="1">
         <v>5</v>
       </c>
+      <c r="BH19" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -4079,8 +4139,11 @@
       <c r="BG20" s="1">
         <v>22</v>
       </c>
+      <c r="BH20" s="1">
+        <v>22</v>
+      </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -4256,8 +4319,11 @@
       <c r="BG21" s="1">
         <v>87</v>
       </c>
+      <c r="BH21" s="1">
+        <v>87</v>
+      </c>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -4433,8 +4499,11 @@
       <c r="BG22" s="1">
         <v>35</v>
       </c>
+      <c r="BH22" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -4610,8 +4679,11 @@
       <c r="BG23" s="1">
         <v>38</v>
       </c>
+      <c r="BH23" s="1">
+        <v>43</v>
+      </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -4787,8 +4859,11 @@
       <c r="BG24" s="1">
         <v>5</v>
       </c>
+      <c r="BH24" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -4963,6 +5038,9 @@
       </c>
       <c r="BG25" s="1">
         <v>96</v>
+      </c>
+      <c r="BH25" s="1">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Covid19-Tunisia-Confirmed.xlsx
+++ b/Covid19-Tunisia-Confirmed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>Country Name</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>26-04-2020</t>
+  </si>
+  <si>
+    <t>27-04-2020</t>
   </si>
 </sst>
 </file>
@@ -533,15 +536,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH25"/>
+  <dimension ref="A1:BI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BH1" sqref="BH1:BH25"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BI1" sqref="BI1:BI25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:60" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,8 +725,11 @@
       <c r="BH1" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="BI1" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -902,8 +908,11 @@
       <c r="BH2" s="1">
         <v>209</v>
       </c>
+      <c r="BI2" s="1">
+        <v>211</v>
+      </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1082,8 +1091,11 @@
       <c r="BH3" s="1">
         <v>95</v>
       </c>
+      <c r="BI3" s="1">
+        <v>96</v>
+      </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1262,8 +1274,11 @@
       <c r="BH4" s="1">
         <v>93</v>
       </c>
+      <c r="BI4" s="1">
+        <v>93</v>
+      </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1442,8 +1457,11 @@
       <c r="BH5" s="1">
         <v>39</v>
       </c>
+      <c r="BI5" s="1">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1622,8 +1640,11 @@
       <c r="BH6" s="1">
         <v>12</v>
       </c>
+      <c r="BI6" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1823,11 @@
       <c r="BH7" s="1">
         <v>4</v>
       </c>
+      <c r="BI7" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1982,8 +2006,11 @@
       <c r="BH8" s="1">
         <v>22</v>
       </c>
+      <c r="BI8" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2162,8 +2189,11 @@
       <c r="BH9" s="1">
         <v>3</v>
       </c>
+      <c r="BI9" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2342,8 +2372,11 @@
       <c r="BH10" s="1">
         <v>1</v>
       </c>
+      <c r="BI10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -2522,8 +2555,11 @@
       <c r="BH11" s="1">
         <v>6</v>
       </c>
+      <c r="BI11" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2702,8 +2738,11 @@
       <c r="BH12" s="1">
         <v>3</v>
       </c>
+      <c r="BI12" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -2882,8 +2921,11 @@
       <c r="BH13" s="1">
         <v>82</v>
       </c>
+      <c r="BI13" s="1">
+        <v>82</v>
+      </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -3062,8 +3104,11 @@
       <c r="BH14" s="1">
         <v>37</v>
       </c>
+      <c r="BI14" s="1">
+        <v>37</v>
+      </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -3242,8 +3287,11 @@
       <c r="BH15" s="1">
         <v>16</v>
       </c>
+      <c r="BI15" s="1">
+        <v>16</v>
+      </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -3422,8 +3470,11 @@
       <c r="BH16" s="1">
         <v>36</v>
       </c>
+      <c r="BI16" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -3602,8 +3653,11 @@
       <c r="BH17" s="1">
         <v>6</v>
       </c>
+      <c r="BI17" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -3782,8 +3836,11 @@
       <c r="BH18" s="1">
         <v>8</v>
       </c>
+      <c r="BI18" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -3962,8 +4019,11 @@
       <c r="BH19" s="1">
         <v>5</v>
       </c>
+      <c r="BI19" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -4142,8 +4202,11 @@
       <c r="BH20" s="1">
         <v>22</v>
       </c>
+      <c r="BI20" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -4322,8 +4385,11 @@
       <c r="BH21" s="1">
         <v>87</v>
       </c>
+      <c r="BI21" s="1">
+        <v>87</v>
+      </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -4502,8 +4568,11 @@
       <c r="BH22" s="1">
         <v>35</v>
       </c>
+      <c r="BI22" s="1">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -4682,8 +4751,11 @@
       <c r="BH23" s="1">
         <v>43</v>
       </c>
+      <c r="BI23" s="1">
+        <v>43</v>
+      </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -4862,8 +4934,11 @@
       <c r="BH24" s="1">
         <v>5</v>
       </c>
+      <c r="BI24" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -5041,6 +5116,9 @@
       </c>
       <c r="BH25" s="1">
         <v>98</v>
+      </c>
+      <c r="BI25" s="1">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Covid19-Tunisia-Confirmed.xlsx
+++ b/Covid19-Tunisia-Confirmed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>Country Name</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>27-04-2020</t>
+  </si>
+  <si>
+    <t>28-04-2020</t>
   </si>
 </sst>
 </file>
@@ -536,15 +539,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI25"/>
+  <dimension ref="A1:BJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BI1" sqref="BI1:BI25"/>
+      <selection activeCell="BJ1" sqref="BJ1:BJ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:61" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,8 +731,11 @@
       <c r="BI1" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="BJ1" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -911,8 +917,11 @@
       <c r="BI2" s="1">
         <v>211</v>
       </c>
+      <c r="BJ2" s="1">
+        <v>211</v>
+      </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1094,8 +1103,11 @@
       <c r="BI3" s="1">
         <v>96</v>
       </c>
+      <c r="BJ3" s="1">
+        <v>97</v>
+      </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1277,8 +1289,11 @@
       <c r="BI4" s="1">
         <v>93</v>
       </c>
+      <c r="BJ4" s="1">
+        <v>94</v>
+      </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1460,8 +1475,11 @@
       <c r="BI5" s="1">
         <v>39</v>
       </c>
+      <c r="BJ5" s="1">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1643,8 +1661,11 @@
       <c r="BI6" s="1">
         <v>13</v>
       </c>
+      <c r="BJ6" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1826,8 +1847,11 @@
       <c r="BI7" s="1">
         <v>3</v>
       </c>
+      <c r="BJ7" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -2009,8 +2033,11 @@
       <c r="BI8" s="1">
         <v>25</v>
       </c>
+      <c r="BJ8" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2192,8 +2219,11 @@
       <c r="BI9" s="1">
         <v>3</v>
       </c>
+      <c r="BJ9" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2375,8 +2405,11 @@
       <c r="BI10" s="1">
         <v>1</v>
       </c>
+      <c r="BJ10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -2558,8 +2591,11 @@
       <c r="BI11" s="1">
         <v>6</v>
       </c>
+      <c r="BJ11" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2741,8 +2777,11 @@
       <c r="BI12" s="1">
         <v>3</v>
       </c>
+      <c r="BJ12" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -2924,8 +2963,11 @@
       <c r="BI13" s="1">
         <v>82</v>
       </c>
+      <c r="BJ13" s="1">
+        <v>82</v>
+      </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -3107,8 +3149,11 @@
       <c r="BI14" s="1">
         <v>37</v>
       </c>
+      <c r="BJ14" s="1">
+        <v>37</v>
+      </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -3290,8 +3335,11 @@
       <c r="BI15" s="1">
         <v>16</v>
       </c>
+      <c r="BJ15" s="1">
+        <v>16</v>
+      </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -3473,8 +3521,11 @@
       <c r="BI16" s="1">
         <v>36</v>
       </c>
+      <c r="BJ16" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -3656,8 +3707,11 @@
       <c r="BI17" s="1">
         <v>6</v>
       </c>
+      <c r="BJ17" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -3839,8 +3893,11 @@
       <c r="BI18" s="1">
         <v>8</v>
       </c>
+      <c r="BJ18" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -4022,8 +4079,11 @@
       <c r="BI19" s="1">
         <v>5</v>
       </c>
+      <c r="BJ19" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -4205,8 +4265,11 @@
       <c r="BI20" s="1">
         <v>23</v>
       </c>
+      <c r="BJ20" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -4388,8 +4451,11 @@
       <c r="BI21" s="1">
         <v>87</v>
       </c>
+      <c r="BJ21" s="1">
+        <v>87</v>
+      </c>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -4571,8 +4637,11 @@
       <c r="BI22" s="1">
         <v>35</v>
       </c>
+      <c r="BJ22" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -4754,8 +4823,11 @@
       <c r="BI23" s="1">
         <v>43</v>
       </c>
+      <c r="BJ23" s="1">
+        <v>44</v>
+      </c>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -4937,8 +5009,11 @@
       <c r="BI24" s="1">
         <v>5</v>
       </c>
+      <c r="BJ24" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -5118,6 +5193,9 @@
         <v>98</v>
       </c>
       <c r="BI25" s="1">
+        <v>99</v>
+      </c>
+      <c r="BJ25" s="1">
         <v>99</v>
       </c>
     </row>

--- a/Covid19-Tunisia-Confirmed.xlsx
+++ b/Covid19-Tunisia-Confirmed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>Country Name</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>28-04-2020</t>
+  </si>
+  <si>
+    <t>29-04-2020</t>
   </si>
 </sst>
 </file>
@@ -539,15 +542,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ25"/>
+  <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BJ1" sqref="BJ1:BJ25"/>
+      <selection activeCell="BK1" sqref="BK1:BK25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:62" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,8 +737,11 @@
       <c r="BJ1" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="BK1" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -920,8 +926,11 @@
       <c r="BJ2" s="1">
         <v>211</v>
       </c>
+      <c r="BK2" s="1">
+        <v>223</v>
+      </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1106,8 +1115,11 @@
       <c r="BJ3" s="1">
         <v>97</v>
       </c>
+      <c r="BK3" s="1">
+        <v>97</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1292,8 +1304,11 @@
       <c r="BJ4" s="1">
         <v>94</v>
       </c>
+      <c r="BK4" s="1">
+        <v>94</v>
+      </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1478,8 +1493,11 @@
       <c r="BJ5" s="1">
         <v>39</v>
       </c>
+      <c r="BK5" s="1">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1664,8 +1682,11 @@
       <c r="BJ6" s="1">
         <v>13</v>
       </c>
+      <c r="BK6" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1850,8 +1871,11 @@
       <c r="BJ7" s="1">
         <v>3</v>
       </c>
+      <c r="BK7" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -2036,8 +2060,11 @@
       <c r="BJ8" s="1">
         <v>25</v>
       </c>
+      <c r="BK8" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2222,8 +2249,11 @@
       <c r="BJ9" s="1">
         <v>3</v>
       </c>
+      <c r="BK9" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2408,8 +2438,11 @@
       <c r="BJ10" s="1">
         <v>1</v>
       </c>
+      <c r="BK10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -2594,8 +2627,11 @@
       <c r="BJ11" s="1">
         <v>6</v>
       </c>
+      <c r="BK11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2780,8 +2816,11 @@
       <c r="BJ12" s="1">
         <v>3</v>
       </c>
+      <c r="BK12" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -2966,8 +3005,11 @@
       <c r="BJ13" s="1">
         <v>82</v>
       </c>
+      <c r="BK13" s="1">
+        <v>82</v>
+      </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -3152,8 +3194,11 @@
       <c r="BJ14" s="1">
         <v>37</v>
       </c>
+      <c r="BK14" s="1">
+        <v>37</v>
+      </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -3338,8 +3383,11 @@
       <c r="BJ15" s="1">
         <v>16</v>
       </c>
+      <c r="BK15" s="1">
+        <v>16</v>
+      </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -3524,8 +3572,11 @@
       <c r="BJ16" s="1">
         <v>36</v>
       </c>
+      <c r="BK16" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -3710,8 +3761,11 @@
       <c r="BJ17" s="1">
         <v>6</v>
       </c>
+      <c r="BK17" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -3896,8 +3950,11 @@
       <c r="BJ18" s="1">
         <v>9</v>
       </c>
+      <c r="BK18" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -4082,8 +4139,11 @@
       <c r="BJ19" s="1">
         <v>5</v>
       </c>
+      <c r="BK19" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -4268,8 +4328,11 @@
       <c r="BJ20" s="1">
         <v>23</v>
       </c>
+      <c r="BK20" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -4454,8 +4517,11 @@
       <c r="BJ21" s="1">
         <v>87</v>
       </c>
+      <c r="BK21" s="1">
+        <v>87</v>
+      </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -4640,8 +4706,11 @@
       <c r="BJ22" s="1">
         <v>36</v>
       </c>
+      <c r="BK22" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -4826,8 +4895,11 @@
       <c r="BJ23" s="1">
         <v>44</v>
       </c>
+      <c r="BK23" s="1">
+        <v>44</v>
+      </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -5012,8 +5084,11 @@
       <c r="BJ24" s="1">
         <v>5</v>
       </c>
+      <c r="BK24" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -5196,6 +5271,9 @@
         <v>99</v>
       </c>
       <c r="BJ25" s="1">
+        <v>99</v>
+      </c>
+      <c r="BK25" s="1">
         <v>99</v>
       </c>
     </row>

--- a/Covid19-Tunisia-Confirmed.xlsx
+++ b/Covid19-Tunisia-Confirmed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t>Country Name</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>29-04-2020</t>
+  </si>
+  <si>
+    <t>30-04-2020</t>
   </si>
 </sst>
 </file>
@@ -542,15 +545,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK25"/>
+  <dimension ref="A1:BL25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BK1" sqref="BK1:BK25"/>
+      <selection activeCell="BL1" sqref="BL1:BL25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:63" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,8 +743,11 @@
       <c r="BK1" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="BL1" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -929,8 +935,11 @@
       <c r="BK2" s="1">
         <v>223</v>
       </c>
+      <c r="BL2" s="1">
+        <v>223</v>
+      </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1118,8 +1127,11 @@
       <c r="BK3" s="1">
         <v>97</v>
       </c>
+      <c r="BL3" s="1">
+        <v>98</v>
+      </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1307,8 +1319,11 @@
       <c r="BK4" s="1">
         <v>94</v>
       </c>
+      <c r="BL4" s="1">
+        <v>94</v>
+      </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1496,8 +1511,11 @@
       <c r="BK5" s="1">
         <v>39</v>
       </c>
+      <c r="BL5" s="1">
+        <v>40</v>
+      </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1685,8 +1703,11 @@
       <c r="BK6" s="1">
         <v>13</v>
       </c>
+      <c r="BL6" s="1">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1874,8 +1895,11 @@
       <c r="BK7" s="1">
         <v>3</v>
       </c>
+      <c r="BL7" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -2063,8 +2087,11 @@
       <c r="BK8" s="1">
         <v>25</v>
       </c>
+      <c r="BL8" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2252,8 +2279,11 @@
       <c r="BK9" s="1">
         <v>3</v>
       </c>
+      <c r="BL9" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2441,8 +2471,11 @@
       <c r="BK10" s="1">
         <v>1</v>
       </c>
+      <c r="BL10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -2630,8 +2663,11 @@
       <c r="BK11" s="1">
         <v>7</v>
       </c>
+      <c r="BL11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2819,8 +2855,11 @@
       <c r="BK12" s="1">
         <v>3</v>
       </c>
+      <c r="BL12" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -3008,8 +3047,11 @@
       <c r="BK13" s="1">
         <v>82</v>
       </c>
+      <c r="BL13" s="1">
+        <v>82</v>
+      </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -3197,8 +3239,11 @@
       <c r="BK14" s="1">
         <v>37</v>
       </c>
+      <c r="BL14" s="1">
+        <v>37</v>
+      </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -3386,8 +3431,11 @@
       <c r="BK15" s="1">
         <v>16</v>
       </c>
+      <c r="BL15" s="1">
+        <v>16</v>
+      </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -3575,8 +3623,11 @@
       <c r="BK16" s="1">
         <v>36</v>
       </c>
+      <c r="BL16" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -3764,8 +3815,11 @@
       <c r="BK17" s="1">
         <v>7</v>
       </c>
+      <c r="BL17" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -3953,8 +4007,11 @@
       <c r="BK18" s="1">
         <v>9</v>
       </c>
+      <c r="BL18" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -4142,8 +4199,11 @@
       <c r="BK19" s="1">
         <v>5</v>
       </c>
+      <c r="BL19" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -4331,8 +4391,11 @@
       <c r="BK20" s="1">
         <v>23</v>
       </c>
+      <c r="BL20" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -4520,8 +4583,11 @@
       <c r="BK21" s="1">
         <v>87</v>
       </c>
+      <c r="BL21" s="1">
+        <v>88</v>
+      </c>
     </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -4709,8 +4775,11 @@
       <c r="BK22" s="1">
         <v>36</v>
       </c>
+      <c r="BL22" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="23" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -4898,8 +4967,11 @@
       <c r="BK23" s="1">
         <v>44</v>
       </c>
+      <c r="BL23" s="1">
+        <v>44</v>
+      </c>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -5087,8 +5159,11 @@
       <c r="BK24" s="1">
         <v>5</v>
       </c>
+      <c r="BL24" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -5274,6 +5349,9 @@
         <v>99</v>
       </c>
       <c r="BK25" s="1">
+        <v>99</v>
+      </c>
+      <c r="BL25" s="1">
         <v>99</v>
       </c>
     </row>

--- a/Covid19-Tunisia-Confirmed.xlsx
+++ b/Covid19-Tunisia-Confirmed.xlsx
@@ -545,15 +545,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL25"/>
+  <dimension ref="A1:BM25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BL1" sqref="BL1:BL25"/>
+      <selection activeCell="BM1" sqref="BM1:BM25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:64" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:65" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,8 +746,11 @@
       <c r="BL1" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="BM1" s="2">
+        <v>43835</v>
+      </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -938,8 +941,11 @@
       <c r="BL2" s="1">
         <v>223</v>
       </c>
+      <c r="BM2" s="1">
+        <v>228</v>
+      </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1130,8 +1136,11 @@
       <c r="BL3" s="1">
         <v>98</v>
       </c>
+      <c r="BM3" s="1">
+        <v>98</v>
+      </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1322,8 +1331,11 @@
       <c r="BL4" s="1">
         <v>94</v>
       </c>
+      <c r="BM4" s="1">
+        <v>96</v>
+      </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1514,8 +1526,11 @@
       <c r="BL5" s="1">
         <v>40</v>
       </c>
+      <c r="BM5" s="1">
+        <v>41</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1706,8 +1721,11 @@
       <c r="BL6" s="1">
         <v>14</v>
       </c>
+      <c r="BM6" s="1">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1898,8 +1916,11 @@
       <c r="BL7" s="1">
         <v>3</v>
       </c>
+      <c r="BM7" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -2090,8 +2111,11 @@
       <c r="BL8" s="1">
         <v>25</v>
       </c>
+      <c r="BM8" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2282,8 +2306,11 @@
       <c r="BL9" s="1">
         <v>3</v>
       </c>
+      <c r="BM9" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2474,8 +2501,11 @@
       <c r="BL10" s="1">
         <v>1</v>
       </c>
+      <c r="BM10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -2666,8 +2696,11 @@
       <c r="BL11" s="1">
         <v>7</v>
       </c>
+      <c r="BM11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2858,8 +2891,11 @@
       <c r="BL12" s="1">
         <v>3</v>
       </c>
+      <c r="BM12" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -3050,8 +3086,11 @@
       <c r="BL13" s="1">
         <v>82</v>
       </c>
+      <c r="BM13" s="1">
+        <v>82</v>
+      </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -3242,8 +3281,11 @@
       <c r="BL14" s="1">
         <v>37</v>
       </c>
+      <c r="BM14" s="1">
+        <v>38</v>
+      </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -3434,8 +3476,11 @@
       <c r="BL15" s="1">
         <v>16</v>
       </c>
+      <c r="BM15" s="1">
+        <v>16</v>
+      </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -3626,8 +3671,11 @@
       <c r="BL16" s="1">
         <v>36</v>
       </c>
+      <c r="BM16" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -3818,8 +3866,11 @@
       <c r="BL17" s="1">
         <v>7</v>
       </c>
+      <c r="BM17" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -4010,8 +4061,11 @@
       <c r="BL18" s="1">
         <v>9</v>
       </c>
+      <c r="BM18" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -4202,8 +4256,11 @@
       <c r="BL19" s="1">
         <v>5</v>
       </c>
+      <c r="BM19" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -4394,8 +4451,11 @@
       <c r="BL20" s="1">
         <v>23</v>
       </c>
+      <c r="BM20" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -4586,8 +4646,11 @@
       <c r="BL21" s="1">
         <v>88</v>
       </c>
+      <c r="BM21" s="1">
+        <v>88</v>
+      </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -4778,8 +4841,11 @@
       <c r="BL22" s="1">
         <v>36</v>
       </c>
+      <c r="BM22" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -4970,8 +5036,11 @@
       <c r="BL23" s="1">
         <v>44</v>
       </c>
+      <c r="BM23" s="1">
+        <v>44</v>
+      </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -5162,8 +5231,11 @@
       <c r="BL24" s="1">
         <v>5</v>
       </c>
+      <c r="BM24" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -5353,6 +5425,9 @@
       </c>
       <c r="BL25" s="1">
         <v>99</v>
+      </c>
+      <c r="BM25" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Covid19-Tunisia-Confirmed.xlsx
+++ b/Covid19-Tunisia-Confirmed.xlsx
@@ -545,15 +545,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM25"/>
+  <dimension ref="A1:BN25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BM1" sqref="BM1:BM25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:65" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:66" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,8 +749,11 @@
       <c r="BM1" s="2">
         <v>43835</v>
       </c>
+      <c r="BN1" s="2">
+        <v>43866</v>
+      </c>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -944,8 +947,11 @@
       <c r="BM2" s="1">
         <v>228</v>
       </c>
+      <c r="BN2" s="1">
+        <v>228</v>
+      </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1139,8 +1145,11 @@
       <c r="BM3" s="1">
         <v>98</v>
       </c>
+      <c r="BN3" s="1">
+        <v>98</v>
+      </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1334,8 +1343,11 @@
       <c r="BM4" s="1">
         <v>96</v>
       </c>
+      <c r="BN4" s="1">
+        <v>96</v>
+      </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1529,8 +1541,11 @@
       <c r="BM5" s="1">
         <v>41</v>
       </c>
+      <c r="BN5" s="1">
+        <v>41</v>
+      </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1724,8 +1739,11 @@
       <c r="BM6" s="1">
         <v>14</v>
       </c>
+      <c r="BN6" s="1">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1919,8 +1937,11 @@
       <c r="BM7" s="1">
         <v>3</v>
       </c>
+      <c r="BN7" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -2114,8 +2135,11 @@
       <c r="BM8" s="1">
         <v>25</v>
       </c>
+      <c r="BN8" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2309,8 +2333,11 @@
       <c r="BM9" s="1">
         <v>3</v>
       </c>
+      <c r="BN9" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2504,8 +2531,11 @@
       <c r="BM10" s="1">
         <v>1</v>
       </c>
+      <c r="BN10" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -2699,8 +2729,11 @@
       <c r="BM11" s="1">
         <v>7</v>
       </c>
+      <c r="BN11" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2894,8 +2927,11 @@
       <c r="BM12" s="1">
         <v>3</v>
       </c>
+      <c r="BN12" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -3089,8 +3125,11 @@
       <c r="BM13" s="1">
         <v>82</v>
       </c>
+      <c r="BN13" s="1">
+        <v>82</v>
+      </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -3284,8 +3323,11 @@
       <c r="BM14" s="1">
         <v>38</v>
       </c>
+      <c r="BN14" s="1">
+        <v>38</v>
+      </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -3479,8 +3521,11 @@
       <c r="BM15" s="1">
         <v>16</v>
       </c>
+      <c r="BN15" s="1">
+        <v>16</v>
+      </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -3674,8 +3719,11 @@
       <c r="BM16" s="1">
         <v>36</v>
       </c>
+      <c r="BN16" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -3869,8 +3917,11 @@
       <c r="BM17" s="1">
         <v>8</v>
       </c>
+      <c r="BN17" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -4064,8 +4115,11 @@
       <c r="BM18" s="1">
         <v>9</v>
       </c>
+      <c r="BN18" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -4259,8 +4313,11 @@
       <c r="BM19" s="1">
         <v>5</v>
       </c>
+      <c r="BN19" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -4454,8 +4511,11 @@
       <c r="BM20" s="1">
         <v>23</v>
       </c>
+      <c r="BN20" s="1">
+        <v>23</v>
+      </c>
     </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -4649,8 +4709,11 @@
       <c r="BM21" s="1">
         <v>88</v>
       </c>
+      <c r="BN21" s="1">
+        <v>88</v>
+      </c>
     </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -4844,8 +4907,11 @@
       <c r="BM22" s="1">
         <v>36</v>
       </c>
+      <c r="BN22" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -5039,8 +5105,11 @@
       <c r="BM23" s="1">
         <v>44</v>
       </c>
+      <c r="BN23" s="1">
+        <v>44</v>
+      </c>
     </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -5234,8 +5303,11 @@
       <c r="BM24" s="1">
         <v>5</v>
       </c>
+      <c r="BN24" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -5428,6 +5500,9 @@
       </c>
       <c r="BM25" s="1">
         <v>100</v>
+      </c>
+      <c r="BN25" s="1">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
